--- a/BOM_display_pov.xlsx
+++ b/BOM_display_pov.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\UNIVERSIDADE\4ano\ACE\PoV_Display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C6D04B8-26B8-4E2B-B93A-CB8F5D266477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE5FCF0-7F55-401E-8F42-320107CD7028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FCF3CAF1-3F2B-490A-8E1F-09B38BE65704}"/>
   </bookViews>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Lista de Compras</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantidade </t>
-  </si>
-  <si>
     <t>Preço</t>
   </si>
   <si>
@@ -60,15 +57,83 @@
     <t>LED's RGB</t>
   </si>
   <si>
-    <t>provave</t>
+    <t xml:space="preserve">Já tenho </t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/2036819167.html?spm=a2g0o.order_list.order_list_main.5.65021802rMdS0O&amp;gatewayAdapt=glo2bra</t>
+  </si>
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Tenho apenas 1</t>
+  </si>
+  <si>
+    <t>Quantidade de compra</t>
+  </si>
+  <si>
+    <t>Baterias</t>
+  </si>
+  <si>
+    <t>Carrgador Baterias</t>
+  </si>
+  <si>
+    <t>https://www.botnroll.com/pt/18650/2300-pilha-li-ion-mr18650-37v-2550mah.html</t>
+  </si>
+  <si>
+    <t>https://www.botnroll.com/pt/18650/2564-carregador-baterias-18650-2x0-5a.html</t>
+  </si>
+  <si>
+    <t>https://www.botnroll.com/pt/18650/5463-suporte-para-4-pilhas-mr18650-c-fios.html</t>
+  </si>
+  <si>
+    <t>Suporte das baterias</t>
+  </si>
+  <si>
+    <t>DFRobot dc motor (Indefinido)</t>
+  </si>
+  <si>
+    <t>https://www.dfrobot.com/product-1457.html</t>
+  </si>
+  <si>
+    <t>pi pico w</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>https://www.botnroll.com/pt/headers/261-pente-25-pinos-254mm-vertical.html</t>
+  </si>
+  <si>
+    <t>Conversor de tensão</t>
+  </si>
+  <si>
+    <t>https://www.botnroll.com/pt/step-down/3671-conversor-dc-dc-step-down-300w-12a.html</t>
+  </si>
+  <si>
+    <t>Driver Motor</t>
+  </si>
+  <si>
+    <t>https://www.botnroll.com/pt/controladores/3363-m-dulo-driver-motores-l298n.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,78 +478,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26D98EB-74B1-4CE5-A265-226BE13EA5B1}">
-  <dimension ref="A4:E10"/>
+  <dimension ref="A4:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="7" max="7" width="64.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>C5*D5</f>
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E13" si="0">C6*D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>9.4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3.85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0.4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>9.9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>7.9</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f>SUM(E5:E18)</f>
+        <v>58.65</v>
       </c>
     </row>
   </sheetData>
